--- a/file/filediem.xlsx
+++ b/file/filediem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C39D8-6A9A-4F69-A26C-1C0E34C27C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1146D4-B7C5-4CE4-B74E-46F314CD7F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1548" yWindow="1128" windowWidth="19200" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LHP18" sheetId="1" r:id="rId1"/>
+    <sheet name="LHP02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -38,13 +38,13 @@
     <t>Cuối Kỳ</t>
   </si>
   <si>
-    <t>LHP18</t>
+    <t>LHP02</t>
   </si>
   <si>
     <t>0001</t>
   </si>
   <si>
-    <t>Nguyễn Văn Trung</t>
+    <t>Đặng Trường An</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,10 +468,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>6.5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
